--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="topLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5342857142857" defaultRowHeight="12.8"/>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>5563984485548</v>
+        <v>5521976543210</v>
       </c>
       <c r="C2" s="3">
         <v>45260</v>
@@ -648,7 +648,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="2">
-        <v>5563992280570</v>
+        <v>5521976543210</v>
       </c>
       <c r="C11" s="3">
         <v>45269</v>
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>5563984485548</v>
+        <v>5521976543210</v>
       </c>
       <c r="C12" s="3">
         <v>45270</v>

--- a/clientes.xlsx
+++ b/clientes.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5342857142857" defaultRowHeight="12.8"/>
@@ -560,7 +560,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>5563992280570</v>
+        <v>5521976543210</v>
       </c>
       <c r="C3" s="3">
         <v>45261</v>
